--- a/config_debug/act_ty_lb1_config.xlsx
+++ b/config_debug/act_ty_lb1_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>line</t>
   </si>
@@ -207,91 +207,6 @@
   <si>
     <t>"prop_hqjnh_xybox","prop_hqjnh_ssbox","prop_hqjnh_csbox"</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x4","传说x15"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","传说x5"</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","史诗x3"</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","稀有x3"</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1048,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1114,7 +1029,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1139,8 +1054,8 @@
       <c r="G3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>51</v>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1165,8 +1080,8 @@
       <c r="G4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>52</v>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1191,13 +1106,13 @@
       <c r="G5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>53</v>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/act_ty_lb1_config.xlsx
+++ b/config_debug/act_ty_lb1_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>line</t>
   </si>
@@ -185,8 +185,69 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>ty_lb1_btn_bx3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_btn_bx2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_btn_bx1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","传说宝箱：活动期间可开启，最高可得500福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","史诗宝箱：活动期间可开启，最高可得500福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","传说宝箱：活动期间可开启，最高可得500福利券！"</t>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","史诗宝箱：活动期间可开启，最高可得500福利券！"</t>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
+  </si>
+  <si>
+    <t>"x1","x15"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x5"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x4","x3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2","x3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10","x15"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x6","x5"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x4","x3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>"双倍奖励卡，请在3D捕鱼中使用"</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -197,220 +258,44 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,"万能字符，可替代“新年快乐”任意字符"</t>
+      <t>9,80,81,</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"请在苹果大战中使用","万能字符，可替代“新年快乐”任意字符"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x10","x280"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x6","x180"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x4","x88"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2","x40"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x240"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x140"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"x4","x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"x2","x3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_lb1_btn_bx3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_lb1_btn_bx2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_lb1_btn_bx1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb","ty_lb1_wnz"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_yg","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_yg","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_shui","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"zpg_icon_shui","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_lb1_wnz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cur_path|皮肤路径 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_002_tylb1_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta_t|开始时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_t|结束时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_ty_xybox","prop_ty_ssbox","prop_ty_csbox",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_icon_box2_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_icon_box2_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_icon_4"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb","ty_lb1_icon_3"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,12 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,6 +440,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,29 +749,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="72.625" customWidth="1"/>
+    <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -898,40 +782,84 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="2">
+        <v>1614643200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1615219199</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="2">
+        <v>1614643200</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1615219199</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E15" s="13"/>
     </row>
   </sheetData>
@@ -946,13 +874,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -973,11 +902,11 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
-        <v>1612828800</v>
-      </c>
-      <c r="C2" s="17">
-        <v>1613404799</v>
+      <c r="B2" s="15">
+        <v>1614643200</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1615219199</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -992,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,20 +974,20 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="17">
-        <v>10465</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="15">
+        <v>10482</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1071,20 +1000,20 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="17">
-        <v>10466</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>31</v>
+      <c r="F3" s="15">
+        <v>10483</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1097,20 +1026,20 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="17">
-        <v>10467</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>32</v>
+      <c r="D4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="15">
+        <v>10484</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1123,20 +1052,20 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="15">
+        <v>10485</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="17">
-        <v>10468</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1154,7 +1083,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1206,20 +1135,20 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="17">
-        <v>10469</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>34</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="15">
+        <v>10486</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1232,20 +1161,20 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="15">
+        <v>10487</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="17">
-        <v>10470</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1258,20 +1187,20 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="15">
+        <v>10488</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="17">
-        <v>10471</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1284,25 +1213,25 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="15">
+        <v>10489</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="17">
-        <v>10472</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/act_ty_lb1_config.xlsx
+++ b/config_debug/act_ty_lb1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>line</t>
   </si>
@@ -114,18 +114,6 @@
   </si>
   <si>
     <t>"请在苹果大战中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
-  </si>
-  <si>
-    <t>"x1","x15"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x5"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x4","x3"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"x2","x3"</t>
@@ -288,6 +276,22 @@
   </si>
   <si>
     <t>"zpg_icon_shui","ty_lb1_icon_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x4","x15"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2","x5"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x8","x3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x4","x3"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -764,13 +768,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -781,10 +785,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
@@ -796,7 +800,7 @@
         <v>1615219199</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -807,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
@@ -822,7 +826,7 @@
         <v>1615219199</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -902,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -950,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>24</v>
@@ -965,10 +969,10 @@
         <v>10482</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -976,13 +980,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>24</v>
@@ -991,10 +995,10 @@
         <v>10483</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1002,13 +1006,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>25</v>
@@ -1017,10 +1021,10 @@
         <v>10484</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1028,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1043,10 +1047,10 @@
         <v>10485</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1063,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1111,13 +1115,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>24</v>
@@ -1126,10 +1130,10 @@
         <v>10486</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1137,13 +1141,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>24</v>
@@ -1152,10 +1156,10 @@
         <v>10487</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1163,13 +1167,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>25</v>
@@ -1178,10 +1182,10 @@
         <v>10488</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1189,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1204,10 +1208,10 @@
         <v>10489</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/act_ty_lb1_config.xlsx
+++ b/config_debug/act_ty_lb1_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>line</t>
   </si>
@@ -201,20 +201,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"双倍奖励卡，请在3D捕鱼中使用","传说宝箱：活动期间可开启，最高可得500福利券！"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"双倍奖励卡，请在3D捕鱼中使用","史诗宝箱：活动期间可开启，最高可得500福利券！"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"请在苹果大战中使用","传说宝箱：活动期间可开启，最高可得500福利券！"</t>
-  </si>
-  <si>
-    <t>"请在苹果大战中使用","史诗宝箱：活动期间可开启，最高可得500福利券！"</t>
-  </si>
-  <si>
     <t>"请在苹果大战中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
   </si>
   <si>
@@ -296,6 +282,26 @@
   </si>
   <si>
     <t>"3dby_btn_jb","ty_lb1_icon_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","传说宝箱：活动期间可开启，最高可得2000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","传说宝箱：活动期间可开启，最高可得2000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","史诗宝箱：活动期间可开启，最高可得1000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","传说宝箱：活动期间可开启，最高可得2000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","史诗宝箱：活动期间可开启，最高可得1000福利券！"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -783,13 +789,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -800,10 +806,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
@@ -815,7 +821,7 @@
         <v>1615219199</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -826,10 +832,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
@@ -841,7 +847,7 @@
         <v>1615219199</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -921,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,7 +981,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>28</v>
@@ -984,10 +990,10 @@
         <v>10482</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1001,7 +1007,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>28</v>
@@ -1010,10 +1016,10 @@
         <v>10483</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1027,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>29</v>
@@ -1036,10 +1042,10 @@
         <v>10484</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1062,10 +1068,10 @@
         <v>10485</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1082,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,7 +1142,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>28</v>
@@ -1145,10 +1151,10 @@
         <v>10486</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1162,7 +1168,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>28</v>
@@ -1171,10 +1177,10 @@
         <v>10487</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1188,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>29</v>
@@ -1197,10 +1203,10 @@
         <v>10488</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1214,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>30</v>
@@ -1223,10 +1229,10 @@
         <v>10489</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/act_ty_lb1_config.xlsx
+++ b/config_debug/act_ty_lb1_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>line</t>
   </si>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>"双倍奖励卡，请在3D捕鱼中使用","史诗宝箱：活动期间可开启，最高可得1000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5020万金币</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1093,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>

--- a/config_debug/act_ty_lb1_config.xlsx
+++ b/config_debug/act_ty_lb1_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>line</t>
   </si>
@@ -94,95 +94,7 @@
   </si>
   <si>
     <t>item_key|道具key（抽奖）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5200万金币</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0万金币</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万金币</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万金币</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_lb1_btn_bx3</t>
@@ -246,27 +158,27 @@
       </rPr>
       <t>9,80,81,</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">cur_path|皮肤路径 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>act_002_tylb1_</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>sta_t|开始时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>end_t|结束时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>"prop_ty_xybox","prop_ty_ssbox","prop_ty_csbox",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>"3dby_btn_jb","ty_lb1_icon_box2_3"</t>
@@ -306,6 +218,60 @@
   </si>
   <si>
     <t>5020万金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>010万金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>996万金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>488万金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000万金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>996万金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>488万金币</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,14 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -402,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,7 +738,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -793,13 +748,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -810,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
@@ -824,8 +779,8 @@
       <c r="G2" s="2">
         <v>1615219199</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>42</v>
+      <c r="H2" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -836,10 +791,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
@@ -850,8 +805,8 @@
       <c r="G3" s="2">
         <v>1615219199</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>42</v>
+      <c r="H3" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -864,16 +819,16 @@
       <c r="C8" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -912,16 +867,16 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>1614643200</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>1615219199</v>
       </c>
       <c r="D2" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -932,7 +887,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,107 +934,107 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="D2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14">
         <v>10482</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>37</v>
+      <c r="G2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>25</v>
+      <c r="B3" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14">
         <v>10483</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>38</v>
+      <c r="G3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>26</v>
+      <c r="B4" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="14">
         <v>10484</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>39</v>
+      <c r="G4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
+      <c r="B5" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="D5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="14">
         <v>10485</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>36</v>
+      <c r="G5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1093,7 +1048,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,98 +1100,98 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="D2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14">
         <v>10486</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>33</v>
+      <c r="G2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>25</v>
+      <c r="B3" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14">
         <v>10487</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>34</v>
+      <c r="G3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>26</v>
+      <c r="B4" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="14">
         <v>10488</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>35</v>
+      <c r="G4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
+      <c r="B5" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10489</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="15">
-        <v>10489</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/act_ty_lb1_config.xlsx
+++ b/config_debug/act_ty_lb1_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>line</t>
   </si>
@@ -272,6 +272,22 @@
   </si>
   <si>
     <t>488万金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"zpg_icon_yg","ty_lb1_icon_box2_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"zpg_icon_yg","ty_lb1_icon_box2_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"zpg_icon_shui","ty_lb1_icon_4"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"zpg_icon_shui","ty_lb1_icon_3"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1064,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1110,7 +1126,7 @@
         <v>10486</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>29</v>
@@ -1136,7 +1152,7 @@
         <v>10487</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>30</v>
@@ -1162,7 +1178,7 @@
         <v>10488</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>31</v>
@@ -1188,7 +1204,7 @@
         <v>10489</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>32</v>

--- a/config_debug/act_ty_lb1_config.xlsx
+++ b/config_debug/act_ty_lb1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>line</t>
   </si>
@@ -107,13 +107,6 @@
   <si>
     <t>ty_lb1_btn_bx1</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"双倍奖励卡，请在3D捕鱼中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"请在苹果大战中使用","稀有宝箱：活动期间可开启，最高可得500福利券！"</t>
   </si>
   <si>
     <t>"x2","x3"</t>
@@ -185,26 +178,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"请在苹果大战中使用","传说宝箱：活动期间可开启，最高可得2000福利券！"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"请在苹果大战中使用","传说宝箱：活动期间可开启，最高可得2000福利券！"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"请在苹果大战中使用","史诗宝箱：活动期间可开启，最高可得1000福利券！"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"双倍奖励卡，请在3D捕鱼中使用","传说宝箱：活动期间可开启，最高可得2000福利券！"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"双倍奖励卡，请在3D捕鱼中使用","史诗宝箱：活动期间可开启，最高可得1000福利券！"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>5020万金币</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -292,6 +265,38 @@
   </si>
   <si>
     <t>"x4","x3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","活动期间可开启，最高可得2000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","活动期间可开启，最高可得2000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","活动期间可开启，最高可得1000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"双倍奖励卡，请在3D捕鱼中使用","活动期间可开启，最高可得500福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","活动期间可开启，最高可得2000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","活动期间可开启，最高可得2000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","活动期间可开启，最高可得1000福利券！"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"请在苹果大战中使用","活动期间可开启，最高可得500福利券！"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -768,13 +773,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -785,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
@@ -800,7 +805,7 @@
         <v>1615219199</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -811,10 +816,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
@@ -826,7 +831,7 @@
         <v>1615219199</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -906,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,13 +959,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>24</v>
@@ -969,10 +974,10 @@
         <v>10482</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -980,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>24</v>
@@ -995,10 +1000,10 @@
         <v>10483</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1006,13 +1011,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>25</v>
@@ -1021,10 +1026,10 @@
         <v>10484</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1032,13 +1037,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>
@@ -1047,10 +1052,10 @@
         <v>10485</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1067,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1115,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>24</v>
@@ -1130,10 +1135,10 @@
         <v>10486</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1141,13 +1146,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>24</v>
@@ -1156,10 +1161,10 @@
         <v>10487</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1167,13 +1172,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>25</v>
@@ -1182,10 +1187,10 @@
         <v>10488</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1193,13 +1198,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>26</v>
@@ -1208,10 +1213,10 @@
         <v>10489</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
